--- a/MOSFERATU TAYDA BOM.xlsx
+++ b/MOSFERATU TAYDA BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Peak Graph Data\10_Projects\MSFTU\21 NOV 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183C166C-AA57-46CA-B295-E054A9A2C462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125C49E9-0C88-4C91-BB8D-F15829802202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAYDA ORDER" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>RefDes</t>
   </si>
@@ -47,9 +47,6 @@
     <t>BOX1</t>
   </si>
   <si>
-    <t>DRV</t>
-  </si>
-  <si>
     <t>RD901F-40-15R1-A100K</t>
   </si>
   <si>
@@ -110,27 +107,12 @@
     <t>LINK TO TAYDA CART</t>
   </si>
   <si>
-    <t>3PDT_FX</t>
-  </si>
-  <si>
     <t>100K OHM Logarithmic Dual Taper Potentiometer Round Shaft PCB 9mm SKU: A-6435</t>
   </si>
   <si>
     <t>RD902F-40-15R1-A100K</t>
   </si>
   <si>
-    <t>FCS</t>
-  </si>
-  <si>
-    <t>LVL</t>
-  </si>
-  <si>
-    <t>LED_FX</t>
-  </si>
-  <si>
-    <t>LED_FX_HLD</t>
-  </si>
-  <si>
     <t>125B Style Aluminum Diecast Enclosure SKU: A-5165</t>
   </si>
   <si>
@@ -140,13 +122,37 @@
     <t>125B</t>
   </si>
   <si>
-    <t>THK, EDG</t>
-  </si>
-  <si>
-    <t>5K OHM Logarithmic Taper Potentiometer Round Knurled Plastic Shaft PCB 9mm SKU: A-1671</t>
-  </si>
-  <si>
-    <t>RV09AF-40-20K-A5K</t>
+    <t>3PDT1</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>LED1_HLD</t>
+  </si>
+  <si>
+    <t>FOCUS</t>
+  </si>
+  <si>
+    <t>RV09AF-40-20K-A25K</t>
+  </si>
+  <si>
+    <t>BODY, EDGE</t>
+  </si>
+  <si>
+    <t>DRIVE</t>
+  </si>
+  <si>
+    <t>LEVEL</t>
+  </si>
+  <si>
+    <t>25K OHM Logarithmic Taper Potentiometer Round Knurled Plastic Shaft PCB 9mm SKU: A-1880</t>
+  </si>
+  <si>
+    <t>Micro Toggle Switch SPDT On-On SKU: A-3643</t>
+  </si>
+  <si>
+    <t>RESONANCE, VOICING</t>
   </si>
 </sst>
 </file>
@@ -195,11 +201,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,7 +495,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="A1:F13" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="A1:F14" totalsRowCount="1">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="RefDes" totalsRowLabel="TOTAL"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Product"/>
@@ -701,16 +708,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F965"/>
+  <dimension ref="A1:F966"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
@@ -723,33 +730,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D12" si="0">(LEN(A2)-LEN(SUBSTITUTE(A2,",",""))+1)</f>
+        <f t="shared" ref="D2:D13" si="0">(LEN(A2)-LEN(SUBSTITUTE(A2,",",""))+1)</f>
         <v>1</v>
       </c>
       <c r="E2" s="2">
@@ -765,10 +772,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="0"/>
@@ -784,13 +791,13 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
       </c>
       <c r="D4" s="1">
         <f>(LEN(A4)-LEN(SUBSTITUTE(A4,",",""))+1)</f>
@@ -806,13 +813,13 @@
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
@@ -828,13 +835,13 @@
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
@@ -850,10 +857,10 @@
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
@@ -873,7 +880,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
@@ -893,7 +900,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
@@ -910,10 +917,10 @@
     </row>
     <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>1</v>
@@ -932,13 +939,13 @@
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1">
         <f>(LEN(A11)-LEN(SUBSTITUTE(A11,",",""))+1)</f>
@@ -954,10 +961,10 @@
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
@@ -973,25 +980,43 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13">
+      <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="F13" s="2">
+        <f>'TAYDA ORDER'!$E13*'TAYDA ORDER'!$D13</f>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
         <f>SUBTOTAL(109,Table_3[QTY])</f>
-        <v>13</v>
-      </c>
-      <c r="F13" s="3">
+        <v>15</v>
+      </c>
+      <c r="F14" s="3">
         <f>SUBTOTAL(109,Table_3[Total])</f>
-        <v>18.54</v>
+        <v>19.46</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>23</v>
+    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1941,6 +1966,7 @@
     <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/MOSFERATU TAYDA BOM.xlsx
+++ b/MOSFERATU TAYDA BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Peak Graph Data\10_Projects\MSFTU\21 NOV 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Peak Graph Data\10_Projects\MSFTU\23 NOV 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125C49E9-0C88-4C91-BB8D-F15829802202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654CB290-08A3-4760-B846-898A1ADF3481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAYDA ORDER" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>RefDes</t>
   </si>
@@ -101,9 +101,6 @@
     <t>DRILL1</t>
   </si>
   <si>
-    <t>TAYDA DRILL TEMPLATE 1590BB</t>
-  </si>
-  <si>
     <t>LINK TO TAYDA CART</t>
   </si>
   <si>
@@ -153,6 +150,18 @@
   </si>
   <si>
     <t>RESONANCE, VOICING</t>
+  </si>
+  <si>
+    <t>125B ENCLOSURE FACE UV PRINTING SERVICE SKU: A-5165-CST-UV1</t>
+  </si>
+  <si>
+    <t>UV1</t>
+  </si>
+  <si>
+    <t>TAYDA UV PRINTING TEMPLATE</t>
+  </si>
+  <si>
+    <t>TAYDA DRILL TEMPLATE</t>
   </si>
 </sst>
 </file>
@@ -495,7 +504,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="A1:F14" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="A1:F15" totalsRowCount="1">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="RefDes" totalsRowLabel="TOTAL"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Product"/>
@@ -708,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F966"/>
+  <dimension ref="A1:F967"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -747,7 +756,7 @@
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>19</v>
@@ -756,7 +765,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D13" si="0">(LEN(A2)-LEN(SUBSTITUTE(A2,",",""))+1)</f>
+        <f t="shared" ref="D2:D14" si="0">(LEN(A2)-LEN(SUBSTITUTE(A2,",",""))+1)</f>
         <v>1</v>
       </c>
       <c r="E2" s="2">
@@ -772,10 +781,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="0"/>
@@ -794,10 +803,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1">
         <f>(LEN(A4)-LEN(SUBSTITUTE(A4,",",""))+1)</f>
@@ -813,24 +822,24 @@
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f>(LEN(A5)-LEN(SUBSTITUTE(A5,",",""))+1)</f>
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>1.29</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2">
         <f>'TAYDA ORDER'!$E5*'TAYDA ORDER'!$D5</f>
-        <v>1.29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -838,10 +847,10 @@
         <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
@@ -857,50 +866,52 @@
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2">
-        <v>0.21</v>
+        <v>1.29</v>
       </c>
       <c r="F7" s="2">
         <f>'TAYDA ORDER'!$E7*'TAYDA ORDER'!$D7</f>
-        <v>0.42</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="2">
-        <v>0.04</v>
+        <v>0.21</v>
       </c>
       <c r="F8" s="2">
         <f>'TAYDA ORDER'!$E8*'TAYDA ORDER'!$D8</f>
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
@@ -908,131 +919,150 @@
         <v>1</v>
       </c>
       <c r="E9" s="2">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="F9" s="2">
         <f>'TAYDA ORDER'!$E9*'TAYDA ORDER'!$D9</f>
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E10" s="2">
-        <v>1.29</v>
+        <v>0.08</v>
       </c>
       <c r="F10" s="2">
         <f>'TAYDA ORDER'!$E10*'TAYDA ORDER'!$D10</f>
-        <v>1.29</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
-        <f>(LEN(A11)-LEN(SUBSTITUTE(A11,",",""))+1)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E11" s="2">
-        <v>0.67</v>
+        <v>1.29</v>
       </c>
       <c r="F11" s="2">
         <f>'TAYDA ORDER'!$E11*'TAYDA ORDER'!$D11</f>
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1">
+        <f>(LEN(A12)-LEN(SUBSTITUTE(A12,",",""))+1)</f>
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="F12" s="2">
+        <f>'TAYDA ORDER'!$E12*'TAYDA ORDER'!$D12</f>
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E13" s="2">
         <v>0.1</v>
       </c>
-      <c r="F12" s="2">
-        <f>'TAYDA ORDER'!$E12*'TAYDA ORDER'!$D12</f>
+      <c r="F13" s="2">
+        <f>'TAYDA ORDER'!$E13*'TAYDA ORDER'!$D13</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="4" t="s">
+    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="1">
+      <c r="B14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E14" s="2">
         <v>0.46</v>
       </c>
-      <c r="F13" s="2">
-        <f>'TAYDA ORDER'!$E13*'TAYDA ORDER'!$D13</f>
+      <c r="F14" s="2">
+        <f>'TAYDA ORDER'!$E14*'TAYDA ORDER'!$D14</f>
         <v>0.92</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <f>SUBTOTAL(109,Table_3[QTY])</f>
-        <v>15</v>
-      </c>
-      <c r="F14" s="3">
+        <v>16</v>
+      </c>
+      <c r="F15" s="3">
         <f>SUBTOTAL(109,Table_3[Total])</f>
-        <v>19.46</v>
+        <v>23.46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>22</v>
+    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1967,6 +1997,7 @@
     <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/MOSFERATU TAYDA BOM.xlsx
+++ b/MOSFERATU TAYDA BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Peak Graph Data\10_Projects\MSFTU\23 NOV 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654CB290-08A3-4760-B846-898A1ADF3481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAFBD52-199A-4CBB-ADFA-F26A78C0B1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAYDA ORDER" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>RefDes</t>
   </si>
@@ -65,27 +65,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>100K OHM Logarithmic Taper Potentiometer Round Shaft PCB 9mm SKU: A-1855</t>
-  </si>
-  <si>
-    <t>LED 3mm Orange Water Clear SKU: A-4571</t>
-  </si>
-  <si>
-    <t>3mm Bezel LED Holder Chrome Metal SKU: A-661</t>
-  </si>
-  <si>
-    <t>50K OHM Logarithmic Dual Taper Potentiometer Round Shaft PCB 9mm SKU: A-6432</t>
-  </si>
-  <si>
-    <t>6.35mm 1/4" Stereo Female Socket Connector SKU: A-5235</t>
-  </si>
-  <si>
-    <t>DC Power Jack 2.1mm Black 3 Pins SKU: A-7137</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
     <t>SF12N-0302-20R-LD-1.5KG</t>
   </si>
   <si>
@@ -95,27 +74,15 @@
     <t>J1, J2</t>
   </si>
   <si>
-    <t>3PDT Compact Stomp Foot / Pedal Switch ON-ON Latching Solder Lug SKU: A-7459</t>
-  </si>
-  <si>
     <t>DRILL1</t>
   </si>
   <si>
     <t>LINK TO TAYDA CART</t>
   </si>
   <si>
-    <t>100K OHM Logarithmic Dual Taper Potentiometer Round Shaft PCB 9mm SKU: A-6435</t>
-  </si>
-  <si>
     <t>RD902F-40-15R1-A100K</t>
   </si>
   <si>
-    <t>125B Style Aluminum Diecast Enclosure SKU: A-5165</t>
-  </si>
-  <si>
-    <t>125B ENCLOSURE CUSTOM DRILL SERVICE SKU: A-5165-CST-DR1</t>
-  </si>
-  <si>
     <t>125B</t>
   </si>
   <si>
@@ -143,25 +110,70 @@
     <t>LEVEL</t>
   </si>
   <si>
-    <t>25K OHM Logarithmic Taper Potentiometer Round Knurled Plastic Shaft PCB 9mm SKU: A-1880</t>
-  </si>
-  <si>
-    <t>Micro Toggle Switch SPDT On-On SKU: A-3643</t>
-  </si>
-  <si>
     <t>RESONANCE, VOICING</t>
   </si>
   <si>
-    <t>125B ENCLOSURE FACE UV PRINTING SERVICE SKU: A-5165-CST-UV1</t>
-  </si>
-  <si>
     <t>UV1</t>
   </si>
   <si>
-    <t>TAYDA UV PRINTING TEMPLATE</t>
-  </si>
-  <si>
     <t>TAYDA DRILL TEMPLATE</t>
+  </si>
+  <si>
+    <t>TAYDA UV PRINT TEMPLATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All prices are in USD $ </t>
+  </si>
+  <si>
+    <t>3PDT Compact Stomp Foot / Pedal Switch ON-ON Latching Solder Lug SKU A-7459</t>
+  </si>
+  <si>
+    <t>125B Style Aluminum Diecast Enclosure SKU A-5165</t>
+  </si>
+  <si>
+    <t>125B ENCLOSURE CUSTOM DRILL SERVICE SKU A-5165-CST-DR1</t>
+  </si>
+  <si>
+    <t>125B ENCLOSURE FACE UV PRINTING SERVICE SKU A-5165-CST-UV1</t>
+  </si>
+  <si>
+    <t>100K OHM Logarithmic Taper Potentiometer Round Shaft PCB 9mm SKU A-1855</t>
+  </si>
+  <si>
+    <t>100K OHM Logarithmic Dual Taper Potentiometer Round Shaft PCB 9mm SKU A-6435</t>
+  </si>
+  <si>
+    <t>6.35mm 1/4" Stereo Female Socket Connector SKU A-5235</t>
+  </si>
+  <si>
+    <t>LED 3mm Orange Water Clear SKU A-4571</t>
+  </si>
+  <si>
+    <t>3mm Bezel LED Holder Chrome Metal SKU A-661</t>
+  </si>
+  <si>
+    <t>50K OHM Logarithmic Dual Taper Potentiometer Round Shaft PCB 9mm SKU A-6432</t>
+  </si>
+  <si>
+    <t>25K OHM Logarithmic Taper Potentiometer Round Knurled Plastic Shaft PCB 9mm SKU A-1880</t>
+  </si>
+  <si>
+    <t>DC Power Jack 2.1mm Black 3 Pins SKU A-7137</t>
+  </si>
+  <si>
+    <t>Micro Toggle Switch SPDT On-On SKU A-3643</t>
+  </si>
+  <si>
+    <t>Knob DAVIES 1900H CLONE Cream SKU A-4560</t>
+  </si>
+  <si>
+    <t>KNOB1, KNOB2, KNOB3</t>
+  </si>
+  <si>
+    <t>Shipping &amp; Handling</t>
+  </si>
+  <si>
+    <t>DHL Express Shipping - 2 to 4 days delivery</t>
   </si>
 </sst>
 </file>
@@ -171,11 +183,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,6 +206,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -207,22 +241,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="29">
     <dxf>
       <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -452,44 +510,44 @@
   </dxfs>
   <tableStyles count="7">
     <tableStyle name="QUOTE-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="27"/>
-      <tableStyleElement type="firstRowStripe" dxfId="26"/>
-      <tableStyleElement type="secondRowStripe" dxfId="25"/>
+      <tableStyleElement type="headerRow" dxfId="28"/>
+      <tableStyleElement type="firstRowStripe" dxfId="27"/>
+      <tableStyleElement type="secondRowStripe" dxfId="26"/>
     </tableStyle>
     <tableStyle name="BOM-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="24"/>
-      <tableStyleElement type="firstRowStripe" dxfId="23"/>
-      <tableStyleElement type="secondRowStripe" dxfId="22"/>
+      <tableStyleElement type="headerRow" dxfId="25"/>
+      <tableStyleElement type="firstRowStripe" dxfId="24"/>
+      <tableStyleElement type="secondRowStripe" dxfId="23"/>
     </tableStyle>
     <tableStyle name="TAYDA ORDER-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="headerRow" dxfId="21"/>
-      <tableStyleElement type="totalRow" dxfId="20"/>
-      <tableStyleElement type="firstRowStripe" dxfId="19"/>
-      <tableStyleElement type="secondRowStripe" dxfId="18"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
+      <tableStyleElement type="totalRow" dxfId="21"/>
+      <tableStyleElement type="firstRowStripe" dxfId="20"/>
+      <tableStyleElement type="secondRowStripe" dxfId="19"/>
     </tableStyle>
     <tableStyle name="TAYDA ALTERNATIVES-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
-      <tableStyleElement type="headerRow" dxfId="17"/>
-      <tableStyleElement type="totalRow" dxfId="16"/>
-      <tableStyleElement type="firstRowStripe" dxfId="15"/>
-      <tableStyleElement type="secondRowStripe" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="18"/>
+      <tableStyleElement type="totalRow" dxfId="17"/>
+      <tableStyleElement type="firstRowStripe" dxfId="16"/>
+      <tableStyleElement type="secondRowStripe" dxfId="15"/>
     </tableStyle>
     <tableStyle name="TAYDA HI Q CAP-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
-      <tableStyleElement type="headerRow" dxfId="13"/>
-      <tableStyleElement type="totalRow" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="secondRowStripe" dxfId="10"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="totalRow" dxfId="13"/>
+      <tableStyleElement type="firstRowStripe" dxfId="12"/>
+      <tableStyleElement type="secondRowStripe" dxfId="11"/>
     </tableStyle>
     <tableStyle name="TAYDA ORDER ALTERNATIVE-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="secondRowStripe" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="totalRow" dxfId="9"/>
+      <tableStyleElement type="firstRowStripe" dxfId="8"/>
+      <tableStyleElement type="secondRowStripe" dxfId="7"/>
     </tableStyle>
     <tableStyle name="JLCPCB PCBA-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF06000000}">
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowStripe" dxfId="3"/>
-      <tableStyleElement type="secondRowStripe" dxfId="2"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="totalRow" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -504,11 +562,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="A1:F15" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="A1:F17" totalsRowCount="1">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="RefDes" totalsRowLabel="TOTAL"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Product"/>
-    <tableColumn id="2" xr3:uid="{EF38395C-E8F4-4E08-957D-1D1B6D78882E}" name="Part No" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="RefDes" totalsRowLabel="LINK TO TAYDA CART" totalsRowDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Product" totalsRowLabel="All prices are in USD $ "/>
+    <tableColumn id="2" xr3:uid="{EF38395C-E8F4-4E08-957D-1D1B6D78882E}" name="Part No" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="QTY" totalsRowFunction="sum">
       <calculatedColumnFormula>(LEN(A2)-LEN(SUBSTITUTE(A2,",",""))+1)</calculatedColumnFormula>
     </tableColumn>
@@ -717,17 +775,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F967"/>
+  <dimension ref="A1:F969"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.36328125" bestFit="1" customWidth="1"/>
@@ -742,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -756,13 +812,13 @@
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D14" si="0">(LEN(A2)-LEN(SUBSTITUTE(A2,",",""))+1)</f>
@@ -781,10 +837,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="0"/>
@@ -800,13 +856,13 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="D4" s="1">
         <f>(LEN(A4)-LEN(SUBSTITUTE(A4,",",""))+1)</f>
@@ -822,13 +878,13 @@
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D5" s="1">
         <f>(LEN(A5)-LEN(SUBSTITUTE(A5,",",""))+1)</f>
@@ -844,10 +900,10 @@
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -866,13 +922,13 @@
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
@@ -888,10 +944,10 @@
     </row>
     <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
@@ -908,10 +964,10 @@
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
@@ -928,10 +984,10 @@
     </row>
     <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
@@ -948,10 +1004,10 @@
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1</v>
@@ -970,13 +1026,13 @@
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1">
         <f>(LEN(A12)-LEN(SUBSTITUTE(A12,",",""))+1)</f>
@@ -995,7 +1051,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
@@ -1012,10 +1068,10 @@
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
@@ -1030,39 +1086,77 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15">
+      <c r="A15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1">
+        <f>(LEN(A15)-LEN(SUBSTITUTE(A15,",",""))+1)</f>
+        <v>3</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="F15" s="2">
+        <f>'TAYDA ORDER'!$E15*'TAYDA ORDER'!$D15</f>
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="1">
+        <f>(LEN(A16)-LEN(SUBSTITUTE(A16,",",""))+1)</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>11.72</v>
+      </c>
+      <c r="F16" s="2">
+        <f>'TAYDA ORDER'!$E16*'TAYDA ORDER'!$D16</f>
+        <v>11.72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17">
         <f>SUBTOTAL(109,Table_3[QTY])</f>
-        <v>16</v>
-      </c>
-      <c r="F15" s="3">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3">
         <f>SUBTOTAL(109,Table_3[Total])</f>
-        <v>23.46</v>
+        <v>36.440000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
+    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
     </row>
-    <row r="18" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1998,11 +2092,18 @@
     <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{6ED10C05-501B-4642-B5B4-649D630484A2}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{C6F5E5D5-93B1-4977-9F8D-376AD5E43AAE}"/>
+    <hyperlink ref="A17" r:id="rId3" xr:uid="{AB446FF4-A9E9-41CF-9288-C47B234C92EC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/MOSFERATU TAYDA BOM.xlsx
+++ b/MOSFERATU TAYDA BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Peak Graph Data\10_Projects\MSFTU\23 NOV 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAFBD52-199A-4CBB-ADFA-F26A78C0B1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901E461B-8CBB-42A8-8BE4-20CA374F39B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,12 +273,11 @@
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="10"/>
+        <color theme="1"/>
         <name val="Aptos Narrow"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -291,11 +290,12 @@
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
+        <u/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="10"/>
         <name val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -564,9 +564,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="A1:F17" totalsRowCount="1">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="RefDes" totalsRowLabel="LINK TO TAYDA CART" totalsRowDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="RefDes" totalsRowLabel="LINK TO TAYDA CART" totalsRowDxfId="2"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Product" totalsRowLabel="All prices are in USD $ "/>
-    <tableColumn id="2" xr3:uid="{EF38395C-E8F4-4E08-957D-1D1B6D78882E}" name="Part No" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{EF38395C-E8F4-4E08-957D-1D1B6D78882E}" name="Part No" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="QTY" totalsRowFunction="sum">
       <calculatedColumnFormula>(LEN(A2)-LEN(SUBSTITUTE(A2,",",""))+1)</calculatedColumnFormula>
     </tableColumn>
@@ -777,7 +777,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F969"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>

--- a/MOSFERATU TAYDA BOM.xlsx
+++ b/MOSFERATU TAYDA BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Peak Graph Data\10_Projects\MSFTU\23 NOV 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901E461B-8CBB-42A8-8BE4-20CA374F39B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C244F8-AEE0-4017-BF6D-2D742AE39D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -778,7 +778,7 @@
   <dimension ref="A1:F969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/MOSFERATU TAYDA BOM.xlsx
+++ b/MOSFERATU TAYDA BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Peak Graph Data\10_Projects\MSFTU\23 NOV 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C244F8-AEE0-4017-BF6D-2D742AE39D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609572CA-C46F-4E3C-855B-2F43BDD2D7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,11 +273,12 @@
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
+        <u/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="10"/>
         <name val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -290,12 +291,11 @@
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="10"/>
+        <color theme="1"/>
         <name val="Aptos Narrow"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -564,9 +564,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="A1:F17" totalsRowCount="1">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="RefDes" totalsRowLabel="LINK TO TAYDA CART" totalsRowDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="RefDes" totalsRowLabel="LINK TO TAYDA CART" totalsRowDxfId="1"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Product" totalsRowLabel="All prices are in USD $ "/>
-    <tableColumn id="2" xr3:uid="{EF38395C-E8F4-4E08-957D-1D1B6D78882E}" name="Part No" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{EF38395C-E8F4-4E08-957D-1D1B6D78882E}" name="Part No" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="QTY" totalsRowFunction="sum">
       <calculatedColumnFormula>(LEN(A2)-LEN(SUBSTITUTE(A2,",",""))+1)</calculatedColumnFormula>
     </tableColumn>
@@ -778,7 +778,7 @@
   <dimension ref="A1:F969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1119,11 +1119,11 @@
         <v>1</v>
       </c>
       <c r="E16" s="2">
-        <v>11.72</v>
+        <v>13.87</v>
       </c>
       <c r="F16" s="2">
         <f>'TAYDA ORDER'!$E16*'TAYDA ORDER'!$D16</f>
-        <v>11.72</v>
+        <v>13.87</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="F17" s="3">
         <f>SUBTOTAL(109,Table_3[Total])</f>
-        <v>36.440000000000005</v>
+        <v>38.590000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/MOSFERATU TAYDA BOM.xlsx
+++ b/MOSFERATU TAYDA BOM.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Peak Graph Data\10_Projects\MSFTU\23 NOV 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609572CA-C46F-4E3C-855B-2F43BDD2D7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DA672B-A736-4AD8-95E8-16D997F86C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAYDA ORDER" sheetId="4" r:id="rId1"/>
+    <sheet name="TAYDA UV PRINTING" sheetId="6" r:id="rId2"/>
+    <sheet name="TAYDA DRILLING" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="83">
   <si>
     <t>RefDes</t>
   </si>
@@ -143,9 +145,6 @@
     <t>100K OHM Logarithmic Dual Taper Potentiometer Round Shaft PCB 9mm SKU A-6435</t>
   </si>
   <si>
-    <t>6.35mm 1/4" Stereo Female Socket Connector SKU A-5235</t>
-  </si>
-  <si>
     <t>LED 3mm Orange Water Clear SKU A-4571</t>
   </si>
   <si>
@@ -155,9 +154,6 @@
     <t>50K OHM Logarithmic Dual Taper Potentiometer Round Shaft PCB 9mm SKU A-6432</t>
   </si>
   <si>
-    <t>25K OHM Logarithmic Taper Potentiometer Round Knurled Plastic Shaft PCB 9mm SKU A-1880</t>
-  </si>
-  <si>
     <t>DC Power Jack 2.1mm Black 3 Pins SKU A-7137</t>
   </si>
   <si>
@@ -174,6 +170,123 @@
   </si>
   <si>
     <t>DHL Express Shipping - 2 to 4 days delivery</t>
+  </si>
+  <si>
+    <t>100K OHM Logarithmic Taper Potentiometer Round Knurled Plastic Shaft PCB 9mm SKU A-1873</t>
+  </si>
+  <si>
+    <t>6.35mm 1/4" Right Angle Mono Female Connector Thread Lock Panel Mount CK635008 SKU A-6976</t>
+  </si>
+  <si>
+    <t>COORDINATES FOR ADOBE ILLUSTRATOR</t>
+  </si>
+  <si>
+    <t>UV Painting</t>
+  </si>
+  <si>
+    <t>AI X</t>
+  </si>
+  <si>
+    <t>AI Y</t>
+  </si>
+  <si>
+    <t>drill dot</t>
+  </si>
+  <si>
+    <t>SPDT1</t>
+  </si>
+  <si>
+    <t>SPDT2</t>
+  </si>
+  <si>
+    <t>BODY</t>
+  </si>
+  <si>
+    <t>EDGE</t>
+  </si>
+  <si>
+    <t>LABEL 3PDT1</t>
+  </si>
+  <si>
+    <t>MOSFERATU</t>
+  </si>
+  <si>
+    <t>LABEL DRIVE</t>
+  </si>
+  <si>
+    <t>LABEL LEVEL</t>
+  </si>
+  <si>
+    <t>LABEL J1</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>LABEL J2</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>BRAND</t>
+  </si>
+  <si>
+    <t>RhPf Electronics</t>
+  </si>
+  <si>
+    <t>LABEL BODY</t>
+  </si>
+  <si>
+    <t>LABEL FOCUS</t>
+  </si>
+  <si>
+    <t>LABEL EDGE</t>
+  </si>
+  <si>
+    <t>LABEL V1</t>
+  </si>
+  <si>
+    <t>9V DC</t>
+  </si>
+  <si>
+    <t>MOSFERATU TAYDA UV PRINT TEMPLATE</t>
+  </si>
+  <si>
+    <t>ADOBE ILLUSTRATOR 125B BLANK TEMPLATE</t>
+  </si>
+  <si>
+    <t>DRILL FACE</t>
+  </si>
+  <si>
+    <t>DRILL X</t>
+  </si>
+  <si>
+    <t>DRILL Y</t>
+  </si>
+  <si>
+    <t>Drill DN (mm)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>10*8</t>
+  </si>
+  <si>
+    <t>FACEB(RECTANGLE)</t>
+  </si>
+  <si>
+    <t>39.5*14</t>
   </si>
 </sst>
 </file>
@@ -183,11 +296,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,28 +361,51 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{7581E649-EF0C-4BF6-8049-109F389B7D79}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{EE4B58B1-39B1-48EF-88D3-41AB05482BCA}"/>
   </cellStyles>
   <dxfs count="29">
     <dxf>
       <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -279,23 +422,6 @@
         <color theme="10"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -564,9 +690,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="A1:F17" totalsRowCount="1">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="RefDes" totalsRowLabel="LINK TO TAYDA CART" totalsRowDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="RefDes" totalsRowLabel="LINK TO TAYDA CART" totalsRowDxfId="2"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Product" totalsRowLabel="All prices are in USD $ "/>
-    <tableColumn id="2" xr3:uid="{EF38395C-E8F4-4E08-957D-1D1B6D78882E}" name="Part No" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{EF38395C-E8F4-4E08-957D-1D1B6D78882E}" name="Part No" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="QTY" totalsRowFunction="sum">
       <calculatedColumnFormula>(LEN(A2)-LEN(SUBSTITUTE(A2,",",""))+1)</calculatedColumnFormula>
     </tableColumn>
@@ -574,6 +700,33 @@
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Total" totalsRowFunction="sum" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7A32EC60-E02D-4656-9004-6FC90AF38497}" name="Table1" displayName="Table1" ref="A2:D21" totalsRowShown="0">
+  <autoFilter ref="A2:D21" xr:uid="{48AB924A-A976-4536-845E-82BB3784975C}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{4B75A4D7-CD70-4B8C-AD2B-76BA32DB2D59}" name="RefDes"/>
+    <tableColumn id="2" xr3:uid="{28A8E210-9D26-4DE7-BF0B-6887CFB76D0E}" name="UV Painting"/>
+    <tableColumn id="3" xr3:uid="{82CA6938-5F4B-4226-9E20-7F410A041FBC}" name="AI X"/>
+    <tableColumn id="4" xr3:uid="{DC0A823B-3938-4A1E-8E65-EE859F44A0DB}" name="AI Y"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E9B784B9-8812-4A71-8752-C55FD067070B}" name="Table13" displayName="Table13" ref="A1:E14" totalsRowShown="0">
+  <autoFilter ref="A1:E14" xr:uid="{7D9811C5-81AE-4FD9-A9B0-D999C49DDFE2}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{EC6AEFE1-8C21-42D2-9E46-CE04F7D5C2F2}" name="RefDes"/>
+    <tableColumn id="2" xr3:uid="{74828610-7064-47A6-8E36-78BB34784A5C}" name="DRILL FACE"/>
+    <tableColumn id="3" xr3:uid="{89890DD1-68F4-4717-8E15-2BC25BE655D4}" name="DRILL X"/>
+    <tableColumn id="4" xr3:uid="{A2D9E126-9CF0-46B9-958F-03F2CF430668}" name="DRILL Y"/>
+    <tableColumn id="5" xr3:uid="{117EF615-FD7D-4EA1-A97E-1DA32CF2376B}" name="Drill DN (mm)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -778,13 +931,13 @@
   <dimension ref="A1:F969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
@@ -949,7 +1102,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
@@ -957,11 +1110,11 @@
         <v>2</v>
       </c>
       <c r="E8" s="2">
-        <v>0.21</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F8" s="2">
         <f>'TAYDA ORDER'!$E8*'TAYDA ORDER'!$D8</f>
-        <v>0.42</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -969,7 +1122,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
@@ -989,7 +1142,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
@@ -1009,7 +1162,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1</v>
@@ -1031,7 +1184,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>20</v>
@@ -1053,7 +1206,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
@@ -1073,7 +1226,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
@@ -1089,10 +1242,10 @@
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="1">
         <f>(LEN(A15)-LEN(SUBSTITUTE(A15,",",""))+1)</f>
@@ -1108,10 +1261,10 @@
     </row>
     <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="1">
@@ -1139,7 +1292,7 @@
       </c>
       <c r="F17" s="3">
         <f>SUBTOTAL(109,Table_3[Total])</f>
-        <v>38.590000000000003</v>
+        <v>39.270000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2108,4 +2261,599 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFEA8CF-992A-4813-B7FE-909E47DD104D}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="38.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="9">
+        <v>31</v>
+      </c>
+      <c r="D3" s="9">
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="9">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="9">
+        <v>52</v>
+      </c>
+      <c r="D5" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="9">
+        <v>10</v>
+      </c>
+      <c r="D6" s="9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="9">
+        <v>52</v>
+      </c>
+      <c r="D7" s="9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="9">
+        <v>31</v>
+      </c>
+      <c r="D8" s="9">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="9">
+        <v>10</v>
+      </c>
+      <c r="D9" s="9">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="9">
+        <v>31</v>
+      </c>
+      <c r="D10" s="9">
+        <v>24.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="9">
+        <v>52</v>
+      </c>
+      <c r="D11" s="9">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="9">
+        <v>31</v>
+      </c>
+      <c r="D12" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="9">
+        <v>10</v>
+      </c>
+      <c r="D13" s="9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="9">
+        <v>52</v>
+      </c>
+      <c r="D14" s="9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="9">
+        <v>46</v>
+      </c>
+      <c r="D15" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="9">
+        <v>16</v>
+      </c>
+      <c r="D16" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="9">
+        <v>31</v>
+      </c>
+      <c r="D17" s="9">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="9">
+        <v>10</v>
+      </c>
+      <c r="D18" s="9">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="9">
+        <v>31</v>
+      </c>
+      <c r="D19" s="9">
+        <v>33.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="9">
+        <v>52</v>
+      </c>
+      <c r="D20" s="9">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="9">
+        <v>31</v>
+      </c>
+      <c r="D21" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A22" r:id="rId1" display="TAYDA UV PRINT TEMPLATE" xr:uid="{889F7888-DF54-4423-96E3-3AB291902616}"/>
+    <hyperlink ref="A23" r:id="rId2" display="ADOBE ILLUSTRATOR 125B TEMPLATE" xr:uid="{15EB962E-40B1-4129-A801-453DEF9BB482}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C666DC9-9CC7-4B64-B62A-D0750CA03BC2}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>-43</v>
+      </c>
+      <c r="E2" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="9">
+        <v>-21</v>
+      </c>
+      <c r="D3" s="9">
+        <v>44.5</v>
+      </c>
+      <c r="E3" s="9">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="9">
+        <v>21</v>
+      </c>
+      <c r="D4" s="9">
+        <v>44.5</v>
+      </c>
+      <c r="E4" s="9">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="9">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="E5" s="9">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="9">
+        <v>-15</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="E6" s="9">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="9">
+        <v>-21</v>
+      </c>
+      <c r="D7" s="9">
+        <v>10.5</v>
+      </c>
+      <c r="E7" s="9">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="9">
+        <v>21</v>
+      </c>
+      <c r="D8" s="9">
+        <v>10.5</v>
+      </c>
+      <c r="E8" s="9">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="9">
+        <v>-21</v>
+      </c>
+      <c r="D10" s="9">
+        <v>24</v>
+      </c>
+      <c r="E10" s="9">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <v>34.25</v>
+      </c>
+      <c r="E11" s="9">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="9">
+        <v>21</v>
+      </c>
+      <c r="D12" s="9">
+        <v>24</v>
+      </c>
+      <c r="E12" s="9">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9">
+        <v>10.5</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A15" r:id="rId1" xr:uid="{197E2731-15F7-4D7F-BF3C-64DFB65C5CB8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/MOSFERATU TAYDA BOM.xlsx
+++ b/MOSFERATU TAYDA BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Peak Graph Data\10_Projects\MSFTU\23 NOV 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DA672B-A736-4AD8-95E8-16D997F86C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6B3E59-D3ED-40B7-9AFA-CE6D2BA6E26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAYDA ORDER" sheetId="4" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>FOCUS</t>
   </si>
   <si>
-    <t>RV09AF-40-20K-A25K</t>
-  </si>
-  <si>
     <t>BODY, EDGE</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>LEVEL</t>
   </si>
   <si>
-    <t>RESONANCE, VOICING</t>
-  </si>
-  <si>
     <t>UV1</t>
   </si>
   <si>
@@ -130,9 +124,6 @@
     <t>3PDT Compact Stomp Foot / Pedal Switch ON-ON Latching Solder Lug SKU A-7459</t>
   </si>
   <si>
-    <t>125B Style Aluminum Diecast Enclosure SKU A-5165</t>
-  </si>
-  <si>
     <t>125B ENCLOSURE CUSTOM DRILL SERVICE SKU A-5165-CST-DR1</t>
   </si>
   <si>
@@ -172,9 +163,6 @@
     <t>DHL Express Shipping - 2 to 4 days delivery</t>
   </si>
   <si>
-    <t>100K OHM Logarithmic Taper Potentiometer Round Knurled Plastic Shaft PCB 9mm SKU A-1873</t>
-  </si>
-  <si>
     <t>6.35mm 1/4" Right Angle Mono Female Connector Thread Lock Panel Mount CK635008 SKU A-6976</t>
   </si>
   <si>
@@ -280,13 +268,25 @@
     <t>J2</t>
   </si>
   <si>
-    <t>10*8</t>
-  </si>
-  <si>
     <t>FACEB(RECTANGLE)</t>
   </si>
   <si>
-    <t>39.5*14</t>
+    <t>39.5*16</t>
+  </si>
+  <si>
+    <t>9.5*11.5</t>
+  </si>
+  <si>
+    <t>125B Style Aluminum Diecast Enclosure CREAM SKU A-5837</t>
+  </si>
+  <si>
+    <t>10K OHM Logarithmic Taper Potentiometer Round Knurled Plastic Shaft PCB 9mm SKU: A-1846</t>
+  </si>
+  <si>
+    <t>RV09AF-40-20K-A10K</t>
+  </si>
+  <si>
+    <t>SPDT1, SPDT2</t>
   </si>
 </sst>
 </file>
@@ -296,11 +296,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -363,22 +370,22 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -386,7 +393,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{EE4B58B1-39B1-48EF-88D3-41AB05482BCA}"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="28">
     <dxf>
       <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
     </dxf>
@@ -404,24 +411,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -636,44 +625,44 @@
   </dxfs>
   <tableStyles count="7">
     <tableStyle name="QUOTE-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="28"/>
-      <tableStyleElement type="firstRowStripe" dxfId="27"/>
-      <tableStyleElement type="secondRowStripe" dxfId="26"/>
+      <tableStyleElement type="headerRow" dxfId="27"/>
+      <tableStyleElement type="firstRowStripe" dxfId="26"/>
+      <tableStyleElement type="secondRowStripe" dxfId="25"/>
     </tableStyle>
     <tableStyle name="BOM-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="25"/>
-      <tableStyleElement type="firstRowStripe" dxfId="24"/>
-      <tableStyleElement type="secondRowStripe" dxfId="23"/>
+      <tableStyleElement type="headerRow" dxfId="24"/>
+      <tableStyleElement type="firstRowStripe" dxfId="23"/>
+      <tableStyleElement type="secondRowStripe" dxfId="22"/>
     </tableStyle>
     <tableStyle name="TAYDA ORDER-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="headerRow" dxfId="22"/>
-      <tableStyleElement type="totalRow" dxfId="21"/>
-      <tableStyleElement type="firstRowStripe" dxfId="20"/>
-      <tableStyleElement type="secondRowStripe" dxfId="19"/>
+      <tableStyleElement type="headerRow" dxfId="21"/>
+      <tableStyleElement type="totalRow" dxfId="20"/>
+      <tableStyleElement type="firstRowStripe" dxfId="19"/>
+      <tableStyleElement type="secondRowStripe" dxfId="18"/>
     </tableStyle>
     <tableStyle name="TAYDA ALTERNATIVES-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
-      <tableStyleElement type="headerRow" dxfId="18"/>
-      <tableStyleElement type="totalRow" dxfId="17"/>
-      <tableStyleElement type="firstRowStripe" dxfId="16"/>
-      <tableStyleElement type="secondRowStripe" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="17"/>
+      <tableStyleElement type="totalRow" dxfId="16"/>
+      <tableStyleElement type="firstRowStripe" dxfId="15"/>
+      <tableStyleElement type="secondRowStripe" dxfId="14"/>
     </tableStyle>
     <tableStyle name="TAYDA HI Q CAP-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
-      <tableStyleElement type="headerRow" dxfId="14"/>
-      <tableStyleElement type="totalRow" dxfId="13"/>
-      <tableStyleElement type="firstRowStripe" dxfId="12"/>
-      <tableStyleElement type="secondRowStripe" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="totalRow" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="TAYDA ORDER ALTERNATIVE-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="totalRow" dxfId="9"/>
-      <tableStyleElement type="firstRowStripe" dxfId="8"/>
-      <tableStyleElement type="secondRowStripe" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="secondRowStripe" dxfId="6"/>
     </tableStyle>
     <tableStyle name="JLCPCB PCBA-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF06000000}">
-      <tableStyleElement type="headerRow" dxfId="6"/>
-      <tableStyleElement type="totalRow" dxfId="5"/>
-      <tableStyleElement type="firstRowStripe" dxfId="4"/>
-      <tableStyleElement type="secondRowStripe" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -690,7 +679,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="A1:F17" totalsRowCount="1">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="RefDes" totalsRowLabel="LINK TO TAYDA CART" totalsRowDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="RefDes" totalsRowLabel="LINK TO TAYDA CART" totalsRowCellStyle="Hyperlink"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Product" totalsRowLabel="All prices are in USD $ "/>
     <tableColumn id="2" xr3:uid="{EF38395C-E8F4-4E08-957D-1D1B6D78882E}" name="Part No" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="QTY" totalsRowFunction="sum">
@@ -931,7 +920,7 @@
   <dimension ref="A1:F969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -970,7 +959,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -992,7 +981,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -1002,11 +991,11 @@
         <v>1</v>
       </c>
       <c r="E3" s="2">
-        <v>5.49</v>
+        <v>5.99</v>
       </c>
       <c r="F3" s="2">
         <f>'TAYDA ORDER'!$E3*'TAYDA ORDER'!$D3</f>
-        <v>5.49</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1014,10 +1003,10 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1">
         <f>(LEN(A4)-LEN(SUBSTITUTE(A4,",",""))+1)</f>
@@ -1033,13 +1022,13 @@
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="D5" s="1">
         <f>(LEN(A5)-LEN(SUBSTITUTE(A5,",",""))+1)</f>
@@ -1055,10 +1044,10 @@
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -1077,10 +1066,10 @@
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -1102,7 +1091,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
@@ -1122,7 +1111,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
@@ -1142,7 +1131,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
@@ -1162,7 +1151,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1</v>
@@ -1181,13 +1170,13 @@
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="D12" s="1">
         <f>(LEN(A12)-LEN(SUBSTITUTE(A12,",",""))+1)</f>
@@ -1206,7 +1195,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
@@ -1214,19 +1203,19 @@
         <v>1</v>
       </c>
       <c r="E13" s="2">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="F13" s="2">
         <f>'TAYDA ORDER'!$E13*'TAYDA ORDER'!$D13</f>
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
@@ -1242,10 +1231,10 @@
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1">
         <f>(LEN(A15)-LEN(SUBSTITUTE(A15,",",""))+1)</f>
@@ -1261,10 +1250,10 @@
     </row>
     <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="1">
@@ -1272,19 +1261,19 @@
         <v>1</v>
       </c>
       <c r="E16" s="2">
-        <v>13.87</v>
+        <v>13.62</v>
       </c>
       <c r="F16" s="2">
         <f>'TAYDA ORDER'!$E16*'TAYDA ORDER'!$D16</f>
-        <v>13.87</v>
+        <v>13.62</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17">
         <f>SUBTOTAL(109,Table_3[QTY])</f>
@@ -1292,14 +1281,16 @@
       </c>
       <c r="F17" s="3">
         <f>SUBTOTAL(109,Table_3[Total])</f>
-        <v>39.270000000000003</v>
+        <v>39.58</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
     </row>
-    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="3"/>
+    </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2273,306 +2264,306 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="9"/>
+    <col min="1" max="1" width="38.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="C3" s="8">
+        <v>31</v>
+      </c>
+      <c r="D3" s="8">
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="8">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="8">
+        <v>52</v>
+      </c>
+      <c r="D5" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="B6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="8">
+        <v>10</v>
+      </c>
+      <c r="D6" s="8">
         <v>48</v>
       </c>
-      <c r="D2" s="9" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="8">
+        <v>52</v>
+      </c>
+      <c r="D7" s="8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="8">
+        <v>31</v>
+      </c>
+      <c r="D8" s="8">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="B9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="8">
+        <v>10</v>
+      </c>
+      <c r="D9" s="8">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="8">
+        <v>31</v>
+      </c>
+      <c r="D10" s="8">
+        <v>24.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="8">
+        <v>52</v>
+      </c>
+      <c r="D11" s="8">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="8">
+        <v>31</v>
+      </c>
+      <c r="D12" s="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="8">
+        <v>10</v>
+      </c>
+      <c r="D13" s="8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="8">
+        <v>52</v>
+      </c>
+      <c r="D14" s="8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="8">
+        <v>46</v>
+      </c>
+      <c r="D15" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="8">
         <v>16</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="D16" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="8">
+        <v>31</v>
+      </c>
+      <c r="D17" s="8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="8">
+        <v>10</v>
+      </c>
+      <c r="D18" s="8">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="8">
+        <v>31</v>
+      </c>
+      <c r="D19" s="8">
+        <v>33.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C20" s="8">
+        <v>52</v>
+      </c>
+      <c r="D20" s="8">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="8">
         <v>31</v>
       </c>
-      <c r="D3" s="9">
-        <v>101.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="9">
-        <v>10</v>
-      </c>
-      <c r="D4" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="9">
-        <v>52</v>
-      </c>
-      <c r="D5" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="9">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="9">
-        <v>52</v>
-      </c>
-      <c r="D7" s="9">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="9">
-        <v>31</v>
-      </c>
-      <c r="D8" s="9">
-        <v>58.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="9">
-        <v>10</v>
-      </c>
-      <c r="D9" s="9">
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="9">
-        <v>31</v>
-      </c>
-      <c r="D10" s="9">
-        <v>24.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="9">
-        <v>52</v>
-      </c>
-      <c r="D11" s="9">
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="9">
-        <v>31</v>
-      </c>
-      <c r="D12" s="9">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="9">
-        <v>10</v>
-      </c>
-      <c r="D13" s="9">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="9">
-        <v>52</v>
-      </c>
-      <c r="D14" s="9">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="9">
-        <v>46</v>
-      </c>
-      <c r="D15" s="9">
+      <c r="D21" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="9">
-        <v>16</v>
-      </c>
-      <c r="D16" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="9">
-        <v>31</v>
-      </c>
-      <c r="D17" s="9">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="9">
-        <v>10</v>
-      </c>
-      <c r="D18" s="9">
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="9">
-        <v>31</v>
-      </c>
-      <c r="D19" s="9">
-        <v>33.25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="9">
-        <v>52</v>
-      </c>
-      <c r="D20" s="9">
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="9">
-        <v>31</v>
-      </c>
-      <c r="D21" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="10" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2589,263 +2580,266 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C666DC9-9CC7-4B64-B62A-D0750CA03BC2}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="9"/>
+    <col min="1" max="1" width="20.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>-43</v>
+      </c>
+      <c r="E2" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="8">
+        <v>-21</v>
+      </c>
+      <c r="D3" s="8">
+        <v>44.5</v>
+      </c>
+      <c r="E3" s="8">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="8">
+        <v>21</v>
+      </c>
+      <c r="D4" s="8">
+        <v>44.5</v>
+      </c>
+      <c r="E4" s="8">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="C5" s="8">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="E5" s="8">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="B6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="8">
+        <v>-15</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="8">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="8">
+        <v>-21</v>
+      </c>
+      <c r="D7" s="8">
+        <v>10.5</v>
+      </c>
+      <c r="E7" s="8">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="8">
+        <v>21</v>
+      </c>
+      <c r="D8" s="8">
+        <v>10.5</v>
+      </c>
+      <c r="E8" s="8">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="8">
+        <v>-21</v>
+      </c>
+      <c r="D10" s="8">
+        <v>24</v>
+      </c>
+      <c r="E10" s="8">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <v>34.25</v>
+      </c>
+      <c r="E11" s="8">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="8">
+        <v>21</v>
+      </c>
+      <c r="D12" s="8">
+        <v>24</v>
+      </c>
+      <c r="E12" s="8">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="9">
+      <c r="B14" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="8">
         <v>0</v>
       </c>
-      <c r="D2" s="9">
-        <v>-43</v>
-      </c>
-      <c r="E2" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="9">
-        <v>-21</v>
-      </c>
-      <c r="D3" s="9">
-        <v>44.5</v>
-      </c>
-      <c r="E3" s="9">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="9">
-        <v>21</v>
-      </c>
-      <c r="D4" s="9">
-        <v>44.5</v>
-      </c>
-      <c r="E4" s="9">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="D14" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="9">
-        <v>15</v>
-      </c>
-      <c r="D5" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="E5" s="9">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="9">
-        <v>-15</v>
-      </c>
-      <c r="D6" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="E6" s="9">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="9">
-        <v>-21</v>
-      </c>
-      <c r="D7" s="9">
-        <v>10.5</v>
-      </c>
-      <c r="E7" s="9">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="9">
-        <v>21</v>
-      </c>
-      <c r="D8" s="9">
-        <v>10.5</v>
-      </c>
-      <c r="E8" s="9">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="9">
-        <v>-21</v>
-      </c>
-      <c r="D10" s="9">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="9">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0</v>
-      </c>
-      <c r="D11" s="9">
-        <v>34.25</v>
-      </c>
-      <c r="E11" s="9">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="9">
-        <v>21</v>
-      </c>
-      <c r="D12" s="9">
-        <v>24</v>
-      </c>
-      <c r="E12" s="9">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="9">
-        <v>0</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0.35</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="9">
-        <v>0</v>
-      </c>
-      <c r="D14" s="9">
-        <v>10.5</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
-        <v>26</v>
-      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E16" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/MOSFERATU TAYDA BOM.xlsx
+++ b/MOSFERATU TAYDA BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Peak Graph Data\10_Projects\MSFTU\23 NOV 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Peak Graph Data\10_Projects\MSFTU\02 DEC 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6B3E59-D3ED-40B7-9AFA-CE6D2BA6E26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39093D9A-1DAF-41FE-A341-CD451FB3EC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAYDA ORDER" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
   <si>
     <t>RefDes</t>
   </si>
@@ -100,9 +100,6 @@
     <t>FOCUS</t>
   </si>
   <si>
-    <t>BODY, EDGE</t>
-  </si>
-  <si>
     <t>DRIVE</t>
   </si>
   <si>
@@ -187,12 +184,6 @@
     <t>SPDT2</t>
   </si>
   <si>
-    <t>BODY</t>
-  </si>
-  <si>
-    <t>EDGE</t>
-  </si>
-  <si>
     <t>LABEL 3PDT1</t>
   </si>
   <si>
@@ -223,15 +214,9 @@
     <t>RhPf Electronics</t>
   </si>
   <si>
-    <t>LABEL BODY</t>
-  </si>
-  <si>
     <t>LABEL FOCUS</t>
   </si>
   <si>
-    <t>LABEL EDGE</t>
-  </si>
-  <si>
     <t>LABEL V1</t>
   </si>
   <si>
@@ -280,13 +265,34 @@
     <t>125B Style Aluminum Diecast Enclosure CREAM SKU A-5837</t>
   </si>
   <si>
-    <t>10K OHM Logarithmic Taper Potentiometer Round Knurled Plastic Shaft PCB 9mm SKU: A-1846</t>
-  </si>
-  <si>
-    <t>RV09AF-40-20K-A10K</t>
-  </si>
-  <si>
     <t>SPDT1, SPDT2</t>
+  </si>
+  <si>
+    <t>RV09AF-40-20K-A25K</t>
+  </si>
+  <si>
+    <t>25K OHM Logarithmic Taper Potentiometer Round Knurled Plastic Shaft PCB 9mm SKU A-1880</t>
+  </si>
+  <si>
+    <t>HEART, BITE</t>
+  </si>
+  <si>
+    <t>LABEL HEART</t>
+  </si>
+  <si>
+    <t>LABEL BITE</t>
+  </si>
+  <si>
+    <t>HEART</t>
+  </si>
+  <si>
+    <t>BITE</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Font</t>
   </si>
 </sst>
 </file>
@@ -296,11 +302,25 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -370,21 +390,23 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -693,13 +715,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7A32EC60-E02D-4656-9004-6FC90AF38497}" name="Table1" displayName="Table1" ref="A2:D21" totalsRowShown="0">
-  <autoFilter ref="A2:D21" xr:uid="{48AB924A-A976-4536-845E-82BB3784975C}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7A32EC60-E02D-4656-9004-6FC90AF38497}" name="Table1" displayName="Table1" ref="A2:E21" totalsRowShown="0">
+  <autoFilter ref="A2:E21" xr:uid="{48AB924A-A976-4536-845E-82BB3784975C}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{4B75A4D7-CD70-4B8C-AD2B-76BA32DB2D59}" name="RefDes"/>
     <tableColumn id="2" xr3:uid="{28A8E210-9D26-4DE7-BF0B-6887CFB76D0E}" name="UV Painting"/>
     <tableColumn id="3" xr3:uid="{82CA6938-5F4B-4226-9E20-7F410A041FBC}" name="AI X"/>
     <tableColumn id="4" xr3:uid="{DC0A823B-3938-4A1E-8E65-EE859F44A0DB}" name="AI Y"/>
+    <tableColumn id="5" xr3:uid="{A8DCACF1-7D24-4CCF-AD20-755E8CC202B1}" name="Font" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -920,7 +943,7 @@
   <dimension ref="A1:F969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -959,7 +982,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -981,7 +1004,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -1003,10 +1026,10 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1">
         <f>(LEN(A4)-LEN(SUBSTITUTE(A4,",",""))+1)</f>
@@ -1022,13 +1045,13 @@
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1">
         <f>(LEN(A5)-LEN(SUBSTITUTE(A5,",",""))+1)</f>
@@ -1044,10 +1067,10 @@
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -1066,10 +1089,10 @@
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -1091,7 +1114,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
@@ -1111,7 +1134,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
@@ -1131,7 +1154,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
@@ -1151,7 +1174,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1</v>
@@ -1170,13 +1193,13 @@
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D12" s="1">
         <f>(LEN(A12)-LEN(SUBSTITUTE(A12,",",""))+1)</f>
@@ -1195,7 +1218,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
@@ -1212,10 +1235,10 @@
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
@@ -1231,10 +1254,10 @@
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1">
         <f>(LEN(A15)-LEN(SUBSTITUTE(A15,",",""))+1)</f>
@@ -1250,10 +1273,10 @@
     </row>
     <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="1">
@@ -1273,7 +1296,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17">
         <f>SUBTOTAL(109,Table_3[QTY])</f>
@@ -2256,10 +2279,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFEA8CF-992A-4813-B7FE-909E47DD104D}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2268,34 +2291,38 @@
     <col min="2" max="2" width="14.08984375" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.36328125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="8"/>
+    <col min="5" max="5" width="9.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="8">
         <v>31</v>
@@ -2303,13 +2330,14 @@
       <c r="D3" s="8">
         <v>101.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="8">
         <v>10</v>
@@ -2318,12 +2346,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="8">
         <v>52</v>
@@ -2332,12 +2360,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="8">
         <v>10</v>
@@ -2346,12 +2374,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="8">
         <v>52</v>
@@ -2360,12 +2388,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="8">
         <v>31</v>
@@ -2374,12 +2402,12 @@
         <v>58.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>49</v>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="8">
         <v>10</v>
@@ -2388,12 +2416,12 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="8">
         <v>31</v>
@@ -2402,12 +2430,12 @@
         <v>24.25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>50</v>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="8">
         <v>52</v>
@@ -2416,26 +2444,29 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C12" s="8">
-        <v>31</v>
+        <v>12.5</v>
       </c>
       <c r="D12" s="8">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>104.5</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="8">
         <v>10</v>
@@ -2443,13 +2474,16 @@
       <c r="D13" s="8">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="8">
         <v>52</v>
@@ -2457,13 +2491,16 @@
       <c r="D14" s="8">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E14" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C15" s="8">
         <v>46</v>
@@ -2471,13 +2508,16 @@
       <c r="D15" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E15" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C16" s="8">
         <v>16</v>
@@ -2485,27 +2525,33 @@
       <c r="D16" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C17" s="8">
-        <v>31</v>
+        <v>12.5</v>
       </c>
       <c r="D17" s="8">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>49</v>
+        <v>109</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="C18" s="8">
         <v>10</v>
@@ -2513,27 +2559,33 @@
       <c r="D18" s="8">
         <v>40.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="8">
-        <v>31</v>
+        <v>31.5</v>
       </c>
       <c r="D19" s="8">
         <v>33.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>50</v>
+      <c r="E19" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="C20" s="8">
         <v>52</v>
@@ -2541,13 +2593,16 @@
       <c r="D20" s="8">
         <v>40.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E20" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C21" s="8">
         <v>31</v>
@@ -2555,20 +2610,23 @@
       <c r="D21" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E21" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A22" r:id="rId1" display="TAYDA UV PRINT TEMPLATE" xr:uid="{889F7888-DF54-4423-96E3-3AB291902616}"/>
+    <hyperlink ref="A22" r:id="rId1" xr:uid="{889F7888-DF54-4423-96E3-3AB291902616}"/>
     <hyperlink ref="A23" r:id="rId2" display="ADOBE ILLUSTRATOR 125B TEMPLATE" xr:uid="{15EB962E-40B1-4129-A801-453DEF9BB482}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2583,7 +2641,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2600,16 +2658,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -2617,7 +2675,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C2" s="8">
         <v>0</v>
@@ -2631,10 +2689,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C3" s="8">
         <v>-21</v>
@@ -2648,10 +2706,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C4" s="8">
         <v>21</v>
@@ -2665,10 +2723,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C5" s="8">
         <v>15</v>
@@ -2682,10 +2740,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C6" s="8">
         <v>-15</v>
@@ -2699,10 +2757,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C7" s="8">
         <v>-21</v>
@@ -2716,10 +2774,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C8" s="8">
         <v>21</v>
@@ -2736,7 +2794,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C9" s="8">
         <v>0</v>
@@ -2749,11 +2807,11 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>49</v>
+      <c r="A10" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C10" s="8">
         <v>-21</v>
@@ -2770,7 +2828,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C11" s="8">
         <v>0</v>
@@ -2783,11 +2841,11 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>50</v>
+      <c r="A12" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C12" s="8">
         <v>21</v>
@@ -2804,7 +2862,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C13" s="8">
         <v>0</v>
@@ -2813,15 +2871,15 @@
         <v>1.5</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C14" s="8">
         <v>0</v>
@@ -2830,12 +2888,12 @@
         <v>9.5</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
